--- a/database/FileExcel/Banner.xlsx
+++ b/database/FileExcel/Banner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6401CF8D-D32E-4724-AC17-0350042E07D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4708E3D9-556B-450C-933A-BDD6295CC4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6830" yWindow="1220" windowWidth="11440" windowHeight="7810" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
+    <workbookView xWindow="6570" yWindow="2990" windowWidth="11440" windowHeight="7810" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
   </bookViews>
   <sheets>
     <sheet name="barang" sheetId="2" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11C854-874A-442C-A5E8-60B8A1614FD1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/database/FileExcel/Banner.xlsx
+++ b/database/FileExcel/Banner.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4708E3D9-556B-450C-933A-BDD6295CC4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0538787C-89C0-4D9B-B6D9-EAD3740991ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2990" windowWidth="11440" windowHeight="7810" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
+    <workbookView xWindow="5440" yWindow="900" windowWidth="11440" windowHeight="7810" xr2:uid="{19905B0D-1A8A-4576-91B2-29E87108E41B}"/>
   </bookViews>
   <sheets>
-    <sheet name="barang" sheetId="2" r:id="rId1"/>
+    <sheet name="banner" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>home3.jpg</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
 </sst>
 </file>
@@ -419,78 +422,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11C854-874A-442C-A5E8-60B8A1614FD1}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" customWidth="1"/>
+    <col min="4" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1"/>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="F5" s="1"/>
+    <row r="5" spans="1:7">
+      <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="F6" s="1"/>
+    <row r="6" spans="1:7">
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
